--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/42_K.Maraş_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/42_K.Maraş_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C6F6C0-B736-4489-A6F4-DCC4ED7DA028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{431F94A4-0AA3-4613-9E84-7D099E71B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{491C5DB7-DE77-473B-BE5B-DD6E8F440DBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{82539532-E470-467B-825D-7EFAF12263D9}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="139" r:id="rId1"/>
@@ -767,10 +767,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5E3E9BC8-4CF6-4B6F-850D-FBBB2A6594BA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{7D991E66-2FA8-4D6A-A130-1E079D54465C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{749FE68E-D04C-4259-9EFC-04BFF52F3C5E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{19403693-256D-4A1A-8BB9-285BAD40FB5D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6A4F395B-2BFD-4452-BABA-3D1A5BDA6F29}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{05F30012-8D7D-4676-97C5-5A898676F1C9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{E3676408-664D-48AB-AD70-4E9B503F9212}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{27BC1C60-2A2D-426D-9A07-F6F073911749}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461913B9-DD50-4534-809F-CBC382CB1525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CDFD32-0D8A-44D5-A413-A68D18293F9C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2409,7 +2409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8AE453-94A6-43D5-9E59-87B9DDCBAC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6F2EF-4F4D-42D5-9B34-AD4E663444DD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3680,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926D4517-D518-4CFC-B67E-46F3BD8B197D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7640F8-ABB8-4732-9703-A29C1562E298}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4959,7 +4959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5793ABF-D224-4A84-A141-6A8AB4040628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB418E1-F297-4E09-8EE7-08EFEEC8D2E9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6238,7 +6238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B841433A-23F7-4B73-B618-038AD198DF49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C0EDCF-A4BA-44DE-A1A7-7F3E02E16A61}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7499,7 +7499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEA653-E2F7-4A78-BDDB-94B741B92B2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474D72CE-97BE-48EC-96B8-08CB2474D8B4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
